--- a/data/trans_orig/P0801-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P0801-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB7DA4AD-7E80-4CCA-9A82-71151AB3B0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{418FE1DE-D2A2-43C5-A173-160B6EA15AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FA251D47-8E68-41C7-8EA4-7B196B2342AB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6E1EEC0F-8157-4064-91DF-6F08C9E68344}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="692">
   <si>
     <t>Población según limitación a hacer esfuerzos moderados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,2026 +77,2044 @@
     <t>98,37%</t>
   </si>
   <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
     <t>96,83%</t>
   </si>
   <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>SI, LIMITA UN POCO</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>SI, LIMITA MUCHO</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>35/44</t>
   </si>
   <si>
     <t>95,83%</t>
   </si>
   <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>SI, LIMITA UN POCO</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>SI, LIMITA MUCHO</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
   </si>
   <si>
     <t>19,19%</t>
   </si>
   <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
+    <t>5,66%</t>
   </si>
 </sst>
 </file>
@@ -2508,7 +2526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818AFE22-FB1D-4BC9-873D-6444AC7E75FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D62F8E3-A182-406B-9E27-9F9CA6AE6A90}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2970,13 +2988,13 @@
         <v>9491</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,7 +3050,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3044,13 +3062,13 @@
         <v>612008</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>605</v>
@@ -3059,13 +3077,13 @@
         <v>634509</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>1192</v>
@@ -3074,13 +3092,13 @@
         <v>1246517</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3113,13 @@
         <v>20266</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -3110,13 +3128,13 @@
         <v>46621</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -3125,13 +3143,13 @@
         <v>66887</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3164,13 @@
         <v>6394</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -3161,13 +3179,13 @@
         <v>8614</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -3176,13 +3194,13 @@
         <v>15008</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,7 +3256,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3250,13 +3268,13 @@
         <v>481553</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>423</v>
@@ -3265,13 +3283,13 @@
         <v>436531</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>870</v>
@@ -3280,13 +3298,13 @@
         <v>918084</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3319,13 @@
         <v>26882</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -3316,13 +3334,13 @@
         <v>60359</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -3331,13 +3349,13 @@
         <v>87241</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3370,13 @@
         <v>10712</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -3367,13 +3385,13 @@
         <v>18752</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -3382,13 +3400,13 @@
         <v>29464</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,7 +3462,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3456,13 +3474,13 @@
         <v>307341</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>287</v>
@@ -3471,13 +3489,13 @@
         <v>292023</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>597</v>
@@ -3486,13 +3504,13 @@
         <v>599365</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3525,13 @@
         <v>58849</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>88</v>
@@ -3522,13 +3540,13 @@
         <v>90209</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>150</v>
@@ -3537,13 +3555,13 @@
         <v>149058</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3576,13 @@
         <v>20520</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -3573,13 +3591,13 @@
         <v>21754</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -3588,13 +3606,13 @@
         <v>42274</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,7 +3668,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3662,13 +3680,13 @@
         <v>310944</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>243</v>
@@ -3677,13 +3695,13 @@
         <v>241412</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>564</v>
@@ -3692,13 +3710,13 @@
         <v>552356</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +3731,13 @@
         <v>134920</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>298</v>
@@ -3728,13 +3746,13 @@
         <v>308370</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>441</v>
@@ -3743,13 +3761,13 @@
         <v>443290</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3782,13 @@
         <v>56602</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>120</v>
@@ -3779,13 +3797,13 @@
         <v>127061</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>179</v>
@@ -3794,13 +3812,13 @@
         <v>183663</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +3886,13 @@
         <v>2910780</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H28" s="7">
         <v>2599</v>
@@ -3883,28 +3901,28 @@
         <v>2655183</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M28" s="7">
         <v>5437</v>
       </c>
       <c r="N28" s="7">
-        <v>5565961</v>
+        <v>5565962</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,13 +3937,13 @@
         <v>264201</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>524</v>
@@ -3934,13 +3952,13 @@
         <v>540972</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M29" s="7">
         <v>796</v>
@@ -3949,13 +3967,13 @@
         <v>805173</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3988,13 @@
         <v>101563</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>174</v>
@@ -3985,13 +4003,13 @@
         <v>183044</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M30" s="7">
         <v>278</v>
@@ -4000,13 +4018,13 @@
         <v>284606</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>201</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,7 +4066,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>39</v>
@@ -4062,7 +4080,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4084,7 +4102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7BE437-87A5-4C30-B0C6-72357CD1FEF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0039C1-89FD-408C-88DE-501ADC2A7730}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4101,7 +4119,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4208,13 +4226,13 @@
         <v>446284</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H4" s="7">
         <v>407</v>
@@ -4223,13 +4241,13 @@
         <v>415539</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M4" s="7">
         <v>845</v>
@@ -4238,13 +4256,13 @@
         <v>861823</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,10 +4280,10 @@
         <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>213</v>
+        <v>94</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -4274,13 +4292,13 @@
         <v>9785</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -4289,13 +4307,13 @@
         <v>16779</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,7 +4334,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4325,13 +4343,13 @@
         <v>4906</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -4340,13 +4358,13 @@
         <v>5774</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>223</v>
+        <v>94</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>225</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4432,13 @@
         <v>663132</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H8" s="7">
         <v>545</v>
@@ -4429,13 +4447,13 @@
         <v>581817</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M8" s="7">
         <v>1189</v>
@@ -4444,13 +4462,13 @@
         <v>1244949</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4483,13 @@
         <v>18338</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="H9" s="7">
         <v>25</v>
@@ -4480,13 +4498,13 @@
         <v>27396</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M9" s="7">
         <v>43</v>
@@ -4495,10 +4513,10 @@
         <v>45735</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>242</v>
@@ -4519,10 +4537,10 @@
         <v>243</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>244</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4531,13 +4549,13 @@
         <v>1042</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4546,13 +4564,13 @@
         <v>6658</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,7 +4626,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4620,13 +4638,13 @@
         <v>639903</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H12" s="7">
         <v>594</v>
@@ -4635,13 +4653,13 @@
         <v>631179</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M12" s="7">
         <v>1205</v>
@@ -4674,10 +4692,10 @@
         <v>258</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>259</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
@@ -4686,13 +4704,13 @@
         <v>61993</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -4701,10 +4719,10 @@
         <v>92063</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>264</v>
@@ -4725,7 +4743,7 @@
         <v>265</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>266</v>
@@ -4758,7 +4776,7 @@
         <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,7 +4832,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4826,13 +4844,13 @@
         <v>547484</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>447</v>
@@ -4841,13 +4859,13 @@
         <v>513612</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>934</v>
@@ -4856,13 +4874,13 @@
         <v>1061097</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4895,13 @@
         <v>52948</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
@@ -4892,13 +4910,13 @@
         <v>79424</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -4907,13 +4925,13 @@
         <v>132372</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,10 +4946,10 @@
         <v>14185</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>291</v>
+        <v>51</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>292</v>
@@ -4943,13 +4961,13 @@
         <v>23163</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M18" s="7">
         <v>35</v>
@@ -4958,13 +4976,13 @@
         <v>37348</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,7 +5038,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5032,13 +5050,13 @@
         <v>345261</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -5047,13 +5065,13 @@
         <v>280212</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M20" s="7">
         <v>570</v>
@@ -5062,13 +5080,13 @@
         <v>625473</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5101,13 @@
         <v>57185</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H21" s="7">
         <v>109</v>
@@ -5098,13 +5116,13 @@
         <v>120444</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M21" s="7">
         <v>162</v>
@@ -5113,13 +5131,13 @@
         <v>177628</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5152,13 @@
         <v>26983</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -5149,13 +5167,13 @@
         <v>47145</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>318</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -5164,13 +5182,13 @@
         <v>74128</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,7 +5244,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5238,13 +5256,13 @@
         <v>283326</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H24" s="7">
         <v>220</v>
@@ -5253,13 +5271,13 @@
         <v>234549</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M24" s="7">
         <v>481</v>
@@ -5268,13 +5286,13 @@
         <v>517875</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5307,13 @@
         <v>169100</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H25" s="7">
         <v>264</v>
@@ -5304,13 +5322,13 @@
         <v>280887</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M25" s="7">
         <v>414</v>
@@ -5319,13 +5337,13 @@
         <v>449987</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5358,13 @@
         <v>107211</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H26" s="7">
         <v>210</v>
@@ -5355,13 +5373,13 @@
         <v>227540</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M26" s="7">
         <v>303</v>
@@ -5370,13 +5388,13 @@
         <v>334750</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,13 +5462,13 @@
         <v>2925391</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H28" s="7">
         <v>2468</v>
@@ -5459,13 +5477,13 @@
         <v>2656907</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M28" s="7">
         <v>5224</v>
@@ -5474,13 +5492,13 @@
         <v>5582298</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,13 +5513,13 @@
         <v>334635</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H29" s="7">
         <v>535</v>
@@ -5510,13 +5528,13 @@
         <v>579929</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M29" s="7">
         <v>839</v>
@@ -5525,13 +5543,13 @@
         <v>914564</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5564,13 @@
         <v>166753</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H30" s="7">
         <v>295</v>
@@ -5561,7 +5579,7 @@
         <v>321473</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>106</v>
+        <v>371</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>372</v>
@@ -5579,10 +5597,10 @@
         <v>374</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,7 +5656,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -5660,7 +5678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09215205-547D-4140-9B18-1715A7EBE7AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33339987-AB21-487D-A9C8-01A009970D85}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5677,7 +5695,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5784,10 +5802,10 @@
         <v>417091</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>379</v>
@@ -5802,10 +5820,10 @@
         <v>380</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M4" s="7">
         <v>782</v>
@@ -5814,13 +5832,13 @@
         <v>800592</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,13 +5853,13 @@
         <v>2372</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>385</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>386</v>
+        <v>220</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -5850,13 +5868,13 @@
         <v>11228</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -5865,13 +5883,13 @@
         <v>13600</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>388</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,7 +5907,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>36</v>
@@ -5901,13 +5919,13 @@
         <v>1026</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5916,13 +5934,13 @@
         <v>1026</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>247</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,7 +6014,7 @@
         <v>397</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>398</v>
       </c>
       <c r="H8" s="7">
         <v>554</v>
@@ -6005,13 +6023,13 @@
         <v>538224</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M8" s="7">
         <v>1103</v>
@@ -6020,13 +6038,13 @@
         <v>1108532</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>95</v>
+        <v>403</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6059,13 @@
         <v>14270</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>405</v>
+        <v>315</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -6059,10 +6077,10 @@
         <v>406</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>24</v>
+        <v>407</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M9" s="7">
         <v>28</v>
@@ -6071,13 +6089,13 @@
         <v>30130</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>241</v>
+        <v>409</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>292</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6110,13 @@
         <v>5918</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -6107,13 +6125,13 @@
         <v>9461</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>243</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -6122,13 +6140,13 @@
         <v>15378</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,7 +6202,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6196,13 +6214,13 @@
         <v>634301</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H12" s="7">
         <v>617</v>
@@ -6211,13 +6229,13 @@
         <v>611917</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="M12" s="7">
         <v>1222</v>
@@ -6226,13 +6244,13 @@
         <v>1246218</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6265,13 @@
         <v>27751</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>425</v>
+        <v>369</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -6262,13 +6280,13 @@
         <v>40490</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>53</v>
+        <v>431</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -6277,13 +6295,13 @@
         <v>68242</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>432</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,13 +6316,13 @@
         <v>7045</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>35</v>
+        <v>437</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -6313,13 +6331,13 @@
         <v>8979</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>268</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -6328,13 +6346,13 @@
         <v>16023</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>25</v>
+        <v>439</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,7 +6408,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6402,13 +6420,13 @@
         <v>570644</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>443</v>
       </c>
       <c r="H16" s="7">
         <v>508</v>
@@ -6417,28 +6435,28 @@
         <v>547639</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="M16" s="7">
         <v>1022</v>
       </c>
       <c r="N16" s="7">
-        <v>1118283</v>
+        <v>1118284</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>444</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,13 +6471,13 @@
         <v>47885</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -6468,13 +6486,13 @@
         <v>61917</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -6483,13 +6501,13 @@
         <v>109802</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,13 +6522,13 @@
         <v>27519</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>298</v>
+        <v>458</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -6519,13 +6537,13 @@
         <v>39521</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -6534,13 +6552,13 @@
         <v>67040</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,7 +6600,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -6596,7 +6614,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6608,13 +6626,13 @@
         <v>386754</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="H20" s="7">
         <v>294</v>
@@ -6623,13 +6641,13 @@
         <v>339748</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="M20" s="7">
         <v>640</v>
@@ -6638,13 +6656,13 @@
         <v>726502</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6659,13 +6677,13 @@
         <v>66816</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>471</v>
+        <v>262</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="H21" s="7">
         <v>91</v>
@@ -6674,13 +6692,13 @@
         <v>100899</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M21" s="7">
         <v>149</v>
@@ -6689,13 +6707,13 @@
         <v>167714</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6710,13 +6728,13 @@
         <v>24348</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -6725,13 +6743,13 @@
         <v>56202</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -6740,13 +6758,13 @@
         <v>80551</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>487</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,7 +6820,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6814,13 +6832,13 @@
         <v>344824</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="H24" s="7">
         <v>277</v>
@@ -6829,13 +6847,13 @@
         <v>321502</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="M24" s="7">
         <v>635</v>
@@ -6844,13 +6862,13 @@
         <v>666327</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6865,13 +6883,13 @@
         <v>165058</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H25" s="7">
         <v>228</v>
@@ -6880,13 +6898,13 @@
         <v>272232</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>153</v>
+        <v>504</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="M25" s="7">
         <v>407</v>
@@ -6895,13 +6913,13 @@
         <v>437290</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6916,13 +6934,13 @@
         <v>81446</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>191</v>
+        <v>510</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="H26" s="7">
         <v>150</v>
@@ -6931,13 +6949,13 @@
         <v>184197</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="M26" s="7">
         <v>240</v>
@@ -6946,13 +6964,13 @@
         <v>265643</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,13 +7038,13 @@
         <v>2923923</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="H28" s="7">
         <v>2641</v>
@@ -7035,13 +7053,13 @@
         <v>2742531</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="M28" s="7">
         <v>5404</v>
@@ -7050,13 +7068,13 @@
         <v>5666454</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7071,13 +7089,13 @@
         <v>324151</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H29" s="7">
         <v>444</v>
@@ -7086,13 +7104,13 @@
         <v>502626</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="M29" s="7">
         <v>763</v>
@@ -7101,13 +7119,13 @@
         <v>826777</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,13 +7140,13 @@
         <v>146276</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>318</v>
+        <v>536</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>292</v>
+        <v>537</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H30" s="7">
         <v>253</v>
@@ -7137,13 +7155,13 @@
         <v>299385</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="M30" s="7">
         <v>402</v>
@@ -7152,13 +7170,13 @@
         <v>445660</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>534</v>
+        <v>55</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7214,7 +7232,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -7236,7 +7254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15303F96-A078-4EA3-93C7-49FA66EEBC15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08C3F42-7565-415A-B85F-9D8756E10853}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7253,7 +7271,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7360,13 +7378,13 @@
         <v>370414</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="H4" s="7">
         <v>204</v>
@@ -7375,13 +7393,13 @@
         <v>351117</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="M4" s="7">
         <v>373</v>
@@ -7390,13 +7408,13 @@
         <v>721531</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>396</v>
+        <v>208</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7411,13 +7429,13 @@
         <v>7265</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -7426,13 +7444,13 @@
         <v>1436</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>57</v>
+        <v>553</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -7441,13 +7459,13 @@
         <v>8701</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>550</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7465,10 +7483,10 @@
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>249</v>
+        <v>555</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -7477,13 +7495,13 @@
         <v>2404</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -7492,13 +7510,13 @@
         <v>2404</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>60</v>
+        <v>558</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7566,13 +7584,13 @@
         <v>406255</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H8" s="7">
         <v>454</v>
@@ -7581,13 +7599,13 @@
         <v>492888</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="M8" s="7">
         <v>741</v>
@@ -7599,10 +7617,10 @@
         <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>566</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>560</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7617,13 +7635,13 @@
         <v>16572</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>562</v>
+        <v>89</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -7632,13 +7650,13 @@
         <v>5360</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>566</v>
+        <v>267</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -7647,13 +7665,13 @@
         <v>21932</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>413</v>
+        <v>572</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7668,13 +7686,13 @@
         <v>5569</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>570</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -7689,7 +7707,7 @@
         <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>572</v>
+        <v>38</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -7698,13 +7716,13 @@
         <v>6536</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>393</v>
+        <v>576</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7760,7 +7778,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7772,13 +7790,13 @@
         <v>525999</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="H12" s="7">
         <v>781</v>
@@ -7787,28 +7805,28 @@
         <v>563908</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>417</v>
+        <v>581</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>578</v>
+        <v>211</v>
       </c>
       <c r="M12" s="7">
         <v>1300</v>
       </c>
       <c r="N12" s="7">
-        <v>1089907</v>
+        <v>1089906</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>227</v>
+        <v>585</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7823,13 +7841,13 @@
         <v>27359</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>586</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>480</v>
+        <v>143</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -7838,13 +7856,13 @@
         <v>34326</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>446</v>
+        <v>588</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -7853,13 +7871,13 @@
         <v>61685</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,13 +7892,13 @@
         <v>3894</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>587</v>
+        <v>247</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>588</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -7889,13 +7907,13 @@
         <v>11610</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>595</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -7904,13 +7922,13 @@
         <v>15503</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>590</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7952,7 +7970,7 @@
         <v>1393</v>
       </c>
       <c r="N15" s="7">
-        <v>1167095</v>
+        <v>1167094</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -7966,7 +7984,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7978,13 +7996,13 @@
         <v>595747</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="H16" s="7">
         <v>986</v>
@@ -7993,28 +8011,28 @@
         <v>639474</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="M16" s="7">
         <v>1581</v>
       </c>
       <c r="N16" s="7">
-        <v>1235222</v>
+        <v>1235221</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>598</v>
+        <v>354</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,13 +8047,13 @@
         <v>101944</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="H17" s="7">
         <v>119</v>
@@ -8044,13 +8062,13 @@
         <v>83436</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="M17" s="7">
         <v>166</v>
@@ -8059,13 +8077,13 @@
         <v>185380</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>608</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8080,13 +8098,13 @@
         <v>26299</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>613</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>610</v>
+        <v>294</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -8095,28 +8113,28 @@
         <v>24352</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>614</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>290</v>
+        <v>615</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>611</v>
+        <v>258</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
       </c>
       <c r="N18" s="7">
-        <v>50651</v>
+        <v>50650</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>29</v>
+        <v>617</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8158,7 +8176,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -8172,7 +8190,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8184,13 +8202,13 @@
         <v>479183</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="H20" s="7">
         <v>760</v>
@@ -8199,13 +8217,13 @@
         <v>447504</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="M20" s="7">
         <v>1297</v>
@@ -8214,13 +8232,13 @@
         <v>926687</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8235,13 +8253,13 @@
         <v>88894</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="H21" s="7">
         <v>176</v>
@@ -8250,13 +8268,13 @@
         <v>108931</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>631</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="M21" s="7">
         <v>269</v>
@@ -8265,13 +8283,13 @@
         <v>197825</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8286,10 +8304,10 @@
         <v>32080</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>631</v>
+        <v>204</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>449</v>
@@ -8301,13 +8319,13 @@
         <v>40628</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>632</v>
+        <v>456</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>322</v>
+        <v>638</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
@@ -8316,13 +8334,13 @@
         <v>72708</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8378,7 +8396,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8387,16 +8405,16 @@
         <v>678</v>
       </c>
       <c r="D24" s="7">
-        <v>456170</v>
+        <v>456171</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="H24" s="7">
         <v>744</v>
@@ -8405,13 +8423,13 @@
         <v>503823</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="M24" s="7">
         <v>1422</v>
@@ -8420,13 +8438,13 @@
         <v>959994</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8438,16 +8456,16 @@
         <v>223</v>
       </c>
       <c r="D25" s="7">
-        <v>157876</v>
+        <v>157877</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="H25" s="7">
         <v>570</v>
@@ -8456,13 +8474,13 @@
         <v>305536</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="M25" s="7">
         <v>793</v>
@@ -8471,13 +8489,13 @@
         <v>463412</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8492,13 +8510,13 @@
         <v>83708</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="H26" s="7">
         <v>394</v>
@@ -8507,13 +8525,13 @@
         <v>217278</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="M26" s="7">
         <v>521</v>
@@ -8522,13 +8540,13 @@
         <v>300985</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8540,7 +8558,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>39</v>
@@ -8596,13 +8614,13 @@
         <v>2833769</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="H28" s="7">
         <v>3929</v>
@@ -8611,13 +8629,13 @@
         <v>2998714</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>669</v>
+        <v>525</v>
       </c>
       <c r="M28" s="7">
         <v>6714</v>
@@ -8626,13 +8644,13 @@
         <v>5832483</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8647,13 +8665,13 @@
         <v>399910</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="H29" s="7">
         <v>922</v>
@@ -8662,13 +8680,13 @@
         <v>539024</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>606</v>
+        <v>680</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="M29" s="7">
         <v>1322</v>
@@ -8677,13 +8695,13 @@
         <v>938934</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>130</v>
+        <v>684</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8698,13 +8716,13 @@
         <v>151549</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>681</v>
+        <v>567</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="H30" s="7">
         <v>515</v>
@@ -8713,13 +8731,13 @@
         <v>297238</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="M30" s="7">
         <v>706</v>
@@ -8728,13 +8746,13 @@
         <v>448787</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>198</v>
+        <v>690</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>371</v>
+        <v>691</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>323</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8790,7 +8808,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P0801-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P0801-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{418FE1DE-D2A2-43C5-A173-160B6EA15AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18BC171D-E968-4E82-850D-47A2B9D36EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6E1EEC0F-8157-4064-91DF-6F08C9E68344}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A2D51126-3ADB-41E7-9BBE-CBDEC8443A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="691">
   <si>
     <t>Población según limitación a hacer esfuerzos moderados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1990 +77,1987 @@
     <t>98,37%</t>
   </si>
   <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>SI, LIMITA UN POCO</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>SI, LIMITA MUCHO</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
     <t>96,97%</t>
   </si>
   <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>SI, LIMITA UN POCO</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>SI, LIMITA MUCHO</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
   </si>
   <si>
     <t>6,42%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
   </si>
   <si>
     <t>5,73%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
   </si>
   <si>
     <t>6,8%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
   </si>
   <si>
     <t>80,65%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
   </si>
   <si>
     <t>80,78%</t>
@@ -2526,7 +2523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D62F8E3-A182-406B-9E27-9F9CA6AE6A90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE1D350-6AF8-42B5-9051-16CD825FDFC9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2988,13 +2985,13 @@
         <v>9491</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,7 +3047,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3062,13 +3059,13 @@
         <v>612008</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>605</v>
@@ -3077,13 +3074,13 @@
         <v>634509</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>1192</v>
@@ -3092,13 +3089,13 @@
         <v>1246517</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3110,13 @@
         <v>20266</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -3128,13 +3125,13 @@
         <v>46621</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -3143,13 +3140,13 @@
         <v>66887</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3161,13 @@
         <v>6394</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -3179,13 +3176,13 @@
         <v>8614</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -3194,13 +3191,13 @@
         <v>15008</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,7 +3253,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3268,13 +3265,13 @@
         <v>481553</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>423</v>
@@ -3283,13 +3280,13 @@
         <v>436531</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>870</v>
@@ -3298,13 +3295,13 @@
         <v>918084</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3316,13 @@
         <v>26882</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -3334,13 +3331,13 @@
         <v>60359</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -3349,13 +3346,13 @@
         <v>87241</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3367,13 @@
         <v>10712</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -3385,13 +3382,13 @@
         <v>18752</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -3400,13 +3397,13 @@
         <v>29464</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,7 +3459,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3474,13 +3471,13 @@
         <v>307341</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>287</v>
@@ -3489,13 +3486,13 @@
         <v>292023</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>597</v>
@@ -3504,13 +3501,13 @@
         <v>599365</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3522,13 @@
         <v>58849</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>88</v>
@@ -3540,13 +3537,13 @@
         <v>90209</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>150</v>
@@ -3555,13 +3552,13 @@
         <v>149058</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3573,13 @@
         <v>20520</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -3591,13 +3588,13 @@
         <v>21754</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -3606,13 +3603,13 @@
         <v>42274</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,7 +3665,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3680,13 +3677,13 @@
         <v>310944</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>243</v>
@@ -3695,13 +3692,13 @@
         <v>241412</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>564</v>
@@ -3710,13 +3707,13 @@
         <v>552356</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3728,13 @@
         <v>134920</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>298</v>
@@ -3746,13 +3743,13 @@
         <v>308370</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>441</v>
@@ -3761,13 +3758,13 @@
         <v>443290</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3779,13 @@
         <v>56602</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>120</v>
@@ -3797,13 +3794,13 @@
         <v>127061</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>179</v>
@@ -3812,13 +3809,13 @@
         <v>183663</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,16 +3880,16 @@
         <v>2838</v>
       </c>
       <c r="D28" s="7">
-        <v>2910780</v>
+        <v>2910779</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H28" s="7">
         <v>2599</v>
@@ -3901,13 +3898,13 @@
         <v>2655183</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M28" s="7">
         <v>5437</v>
@@ -3916,13 +3913,13 @@
         <v>5565962</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3934,13 @@
         <v>264201</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>524</v>
@@ -3952,13 +3949,13 @@
         <v>540972</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M29" s="7">
         <v>796</v>
@@ -3967,13 +3964,13 @@
         <v>805173</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +3985,13 @@
         <v>101563</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>174</v>
@@ -4003,13 +4000,13 @@
         <v>183044</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M30" s="7">
         <v>278</v>
@@ -4018,13 +4015,13 @@
         <v>284606</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,7 +4033,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>39</v>
@@ -4080,7 +4077,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4102,7 +4099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0039C1-89FD-408C-88DE-501ADC2A7730}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4137282-0688-4A13-8B91-A5C66FF9F769}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4119,7 +4116,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4226,13 +4223,13 @@
         <v>446284</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H4" s="7">
         <v>407</v>
@@ -4241,13 +4238,13 @@
         <v>415539</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="M4" s="7">
         <v>845</v>
@@ -4256,13 +4253,13 @@
         <v>861823</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>215</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,10 +4277,10 @@
         <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -4292,13 +4289,13 @@
         <v>9785</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -4307,13 +4304,13 @@
         <v>16779</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,7 +4331,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4343,13 +4340,13 @@
         <v>4906</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -4358,13 +4355,13 @@
         <v>5774</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>64</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4429,13 @@
         <v>663132</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H8" s="7">
         <v>545</v>
@@ -4447,13 +4444,13 @@
         <v>581817</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M8" s="7">
         <v>1189</v>
@@ -4462,13 +4459,13 @@
         <v>1244949</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4480,13 @@
         <v>18338</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="H9" s="7">
         <v>25</v>
@@ -4498,13 +4495,13 @@
         <v>27396</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>239</v>
+        <v>118</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M9" s="7">
         <v>43</v>
@@ -4513,13 +4510,13 @@
         <v>45735</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,13 +4531,13 @@
         <v>5616</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>242</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4549,13 +4546,13 @@
         <v>1042</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4564,13 +4561,13 @@
         <v>6658</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,7 +4623,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4638,13 +4635,13 @@
         <v>639903</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H12" s="7">
         <v>594</v>
@@ -4653,13 +4650,13 @@
         <v>631179</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M12" s="7">
         <v>1205</v>
@@ -4668,13 +4665,13 @@
         <v>1271081</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>257</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,13 +4686,13 @@
         <v>30071</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
@@ -4704,13 +4701,13 @@
         <v>61993</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -4719,13 +4716,13 @@
         <v>92063</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,13 +4737,13 @@
         <v>11889</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -4755,13 +4752,13 @@
         <v>17679</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>269</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -4770,13 +4767,13 @@
         <v>29568</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,7 +4829,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4844,13 +4841,13 @@
         <v>547484</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>447</v>
@@ -4859,13 +4856,13 @@
         <v>513612</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>934</v>
@@ -4874,13 +4871,13 @@
         <v>1061097</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,13 +4892,13 @@
         <v>52948</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
@@ -4910,13 +4907,13 @@
         <v>79424</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -4925,13 +4922,13 @@
         <v>132372</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,13 +4943,13 @@
         <v>14185</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>51</v>
+        <v>290</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>292</v>
+        <v>197</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -4961,13 +4958,13 @@
         <v>23163</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>199</v>
+        <v>291</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M18" s="7">
         <v>35</v>
@@ -4976,10 +4973,10 @@
         <v>37348</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>295</v>
@@ -5038,7 +5035,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5244,7 +5241,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5567,10 +5564,10 @@
         <v>368</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H30" s="7">
         <v>295</v>
@@ -5579,13 +5576,13 @@
         <v>321473</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M30" s="7">
         <v>444</v>
@@ -5594,13 +5591,13 @@
         <v>488226</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,7 +5653,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -5678,7 +5675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33339987-AB21-487D-A9C8-01A009970D85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D56BD5-E09D-422F-9B7E-885D108D9912}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5695,7 +5692,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5802,13 +5799,13 @@
         <v>417091</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H4" s="7">
         <v>391</v>
@@ -5817,13 +5814,13 @@
         <v>383501</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>380</v>
+        <v>18</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>48</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M4" s="7">
         <v>782</v>
@@ -5832,13 +5829,13 @@
         <v>800592</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5850,13 @@
         <v>2372</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>220</v>
+        <v>384</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -5868,10 +5865,10 @@
         <v>11228</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>387</v>
@@ -6041,10 +6038,10 @@
         <v>402</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>403</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,13 +6056,13 @@
         <v>14270</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -6074,13 +6071,13 @@
         <v>15859</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M9" s="7">
         <v>28</v>
@@ -6089,13 +6086,13 @@
         <v>30130</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6107,13 @@
         <v>5918</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -6125,13 +6122,13 @@
         <v>9461</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>415</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -6140,13 +6137,13 @@
         <v>15378</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,7 +6199,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6214,13 +6211,13 @@
         <v>634301</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H12" s="7">
         <v>617</v>
@@ -6229,13 +6226,13 @@
         <v>611917</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="M12" s="7">
         <v>1222</v>
@@ -6244,13 +6241,13 @@
         <v>1246218</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6262,13 @@
         <v>27751</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>369</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -6280,13 +6277,13 @@
         <v>40490</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -6295,13 +6292,13 @@
         <v>68242</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,13 +6313,13 @@
         <v>7045</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -6331,13 +6328,13 @@
         <v>8979</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>67</v>
+        <v>434</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>435</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -6346,13 +6343,13 @@
         <v>16023</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>439</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>440</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,7 +6405,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6420,13 +6417,13 @@
         <v>570644</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H16" s="7">
         <v>508</v>
@@ -6435,28 +6432,28 @@
         <v>547639</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M16" s="7">
         <v>1022</v>
       </c>
       <c r="N16" s="7">
-        <v>1118284</v>
+        <v>1118283</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6471,13 +6468,13 @@
         <v>47885</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -6486,13 +6483,13 @@
         <v>61917</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -6501,13 +6498,13 @@
         <v>109802</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,13 +6519,13 @@
         <v>27519</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -6537,13 +6534,13 @@
         <v>39521</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -6552,13 +6549,13 @@
         <v>67040</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,7 +6597,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -6614,7 +6611,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6626,13 +6623,13 @@
         <v>386754</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>468</v>
+        <v>185</v>
       </c>
       <c r="H20" s="7">
         <v>294</v>
@@ -6641,13 +6638,13 @@
         <v>339748</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M20" s="7">
         <v>640</v>
@@ -6656,13 +6653,13 @@
         <v>726502</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,13 +6674,13 @@
         <v>66816</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>262</v>
+        <v>473</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H21" s="7">
         <v>91</v>
@@ -6692,13 +6689,13 @@
         <v>100899</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="M21" s="7">
         <v>149</v>
@@ -6707,13 +6704,13 @@
         <v>167714</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>481</v>
+        <v>190</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6728,13 +6725,13 @@
         <v>24348</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -6743,13 +6740,13 @@
         <v>56202</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>487</v>
+        <v>109</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -6758,13 +6755,13 @@
         <v>80551</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>490</v>
+        <v>430</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>306</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,7 +6817,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6832,13 +6829,13 @@
         <v>344824</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H24" s="7">
         <v>277</v>
@@ -6847,13 +6844,13 @@
         <v>321502</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M24" s="7">
         <v>635</v>
@@ -6862,13 +6859,13 @@
         <v>666327</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6883,13 +6880,13 @@
         <v>165058</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H25" s="7">
         <v>228</v>
@@ -6898,13 +6895,13 @@
         <v>272232</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M25" s="7">
         <v>407</v>
@@ -6913,13 +6910,13 @@
         <v>437290</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6934,13 +6931,13 @@
         <v>81446</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H26" s="7">
         <v>150</v>
@@ -6949,13 +6946,13 @@
         <v>184197</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M26" s="7">
         <v>240</v>
@@ -6964,13 +6961,13 @@
         <v>265643</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,13 +7035,13 @@
         <v>2923923</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H28" s="7">
         <v>2641</v>
@@ -7053,13 +7050,13 @@
         <v>2742531</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="M28" s="7">
         <v>5404</v>
@@ -7068,13 +7065,13 @@
         <v>5666454</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,13 +7086,13 @@
         <v>324151</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H29" s="7">
         <v>444</v>
@@ -7104,13 +7101,13 @@
         <v>502626</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="M29" s="7">
         <v>763</v>
@@ -7119,13 +7116,13 @@
         <v>826777</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,13 +7137,13 @@
         <v>146276</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H30" s="7">
         <v>253</v>
@@ -7158,10 +7155,10 @@
         <v>320</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="M30" s="7">
         <v>402</v>
@@ -7170,13 +7167,13 @@
         <v>445660</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>55</v>
+        <v>537</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7232,7 +7229,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -7254,7 +7251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08C3F42-7565-415A-B85F-9D8756E10853}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC636BB-5810-4F84-B0A0-058CBC0807A1}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7271,7 +7268,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7378,13 +7375,13 @@
         <v>370414</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>545</v>
       </c>
       <c r="H4" s="7">
         <v>204</v>
@@ -7393,13 +7390,13 @@
         <v>351117</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="M4" s="7">
         <v>373</v>
@@ -7408,13 +7405,13 @@
         <v>721531</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7429,13 +7426,13 @@
         <v>7265</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -7462,10 +7459,10 @@
         <v>554</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>60</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>259</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7486,7 +7483,7 @@
         <v>391</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -7495,13 +7492,13 @@
         <v>2404</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>557</v>
+        <v>265</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -7510,13 +7507,13 @@
         <v>2404</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>558</v>
+        <v>60</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7584,13 +7581,13 @@
         <v>406255</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="H8" s="7">
         <v>454</v>
@@ -7599,13 +7596,13 @@
         <v>492888</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="M8" s="7">
         <v>741</v>
@@ -7617,10 +7614,10 @@
         <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,10 +7635,10 @@
         <v>567</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>89</v>
+        <v>568</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -7650,13 +7647,13 @@
         <v>5360</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -7665,13 +7662,13 @@
         <v>21932</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7686,10 +7683,10 @@
         <v>5569</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>574</v>
+        <v>393</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>575</v>
@@ -7707,7 +7704,7 @@
         <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -7716,7 +7713,7 @@
         <v>6536</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>576</v>
@@ -7778,7 +7775,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7811,7 +7808,7 @@
         <v>582</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>211</v>
+        <v>419</v>
       </c>
       <c r="M12" s="7">
         <v>1300</v>
@@ -7844,10 +7841,10 @@
         <v>586</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>587</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -7856,10 +7853,10 @@
         <v>34326</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>589</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>590</v>
@@ -7892,13 +7889,13 @@
         <v>3894</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>247</v>
+        <v>594</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -7907,10 +7904,10 @@
         <v>11610</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>594</v>
+        <v>113</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>595</v>
@@ -7922,13 +7919,13 @@
         <v>15503</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>418</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7984,7 +7981,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7996,13 +7993,13 @@
         <v>595747</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H16" s="7">
         <v>986</v>
@@ -8011,7 +8008,7 @@
         <v>639474</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>599</v>
+        <v>439</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>600</v>
@@ -8029,10 +8026,10 @@
         <v>602</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>354</v>
+        <v>603</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,13 +8044,13 @@
         <v>101944</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H17" s="7">
         <v>119</v>
@@ -8062,13 +8059,13 @@
         <v>83436</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M17" s="7">
         <v>166</v>
@@ -8077,13 +8074,13 @@
         <v>185380</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8098,13 +8095,13 @@
         <v>26299</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>612</v>
+        <v>104</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -8116,10 +8113,10 @@
         <v>614</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>615</v>
+        <v>57</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
@@ -8128,13 +8125,13 @@
         <v>50650</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8190,7 +8187,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8202,13 +8199,13 @@
         <v>479183</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>621</v>
       </c>
       <c r="H20" s="7">
         <v>760</v>
@@ -8217,13 +8214,13 @@
         <v>447504</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>624</v>
       </c>
       <c r="M20" s="7">
         <v>1297</v>
@@ -8232,13 +8229,13 @@
         <v>926687</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8253,13 +8250,13 @@
         <v>88894</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>629</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>630</v>
+        <v>176</v>
       </c>
       <c r="H21" s="7">
         <v>176</v>
@@ -8268,13 +8265,13 @@
         <v>108931</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>631</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>633</v>
       </c>
       <c r="M21" s="7">
         <v>269</v>
@@ -8283,13 +8280,13 @@
         <v>197825</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8304,13 +8301,13 @@
         <v>32080</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H22" s="7">
         <v>66</v>
@@ -8319,13 +8316,13 @@
         <v>40628</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>456</v>
+        <v>635</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>637</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>638</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
@@ -8334,13 +8331,13 @@
         <v>72708</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>639</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8396,7 +8393,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8408,13 +8405,13 @@
         <v>456171</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>642</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>644</v>
       </c>
       <c r="H24" s="7">
         <v>744</v>
@@ -8423,13 +8420,13 @@
         <v>503823</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>645</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>647</v>
       </c>
       <c r="M24" s="7">
         <v>1422</v>
@@ -8438,13 +8435,13 @@
         <v>959994</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>648</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8459,13 +8456,13 @@
         <v>157877</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>651</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>653</v>
       </c>
       <c r="H25" s="7">
         <v>570</v>
@@ -8474,13 +8471,13 @@
         <v>305536</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>654</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>656</v>
       </c>
       <c r="M25" s="7">
         <v>793</v>
@@ -8489,13 +8486,13 @@
         <v>463412</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>657</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8510,13 +8507,13 @@
         <v>83708</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>660</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>662</v>
       </c>
       <c r="H26" s="7">
         <v>394</v>
@@ -8525,13 +8522,13 @@
         <v>217278</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>663</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>665</v>
       </c>
       <c r="M26" s="7">
         <v>521</v>
@@ -8540,13 +8537,13 @@
         <v>300985</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>666</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8614,13 +8611,13 @@
         <v>2833769</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>669</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>671</v>
       </c>
       <c r="H28" s="7">
         <v>3929</v>
@@ -8629,13 +8626,13 @@
         <v>2998714</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>672</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="M28" s="7">
         <v>6714</v>
@@ -8644,13 +8641,13 @@
         <v>5832483</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>675</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8665,13 +8662,13 @@
         <v>399910</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>678</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>679</v>
       </c>
       <c r="H29" s="7">
         <v>922</v>
@@ -8680,13 +8677,13 @@
         <v>539024</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>680</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>681</v>
       </c>
       <c r="M29" s="7">
         <v>1322</v>
@@ -8695,13 +8692,13 @@
         <v>938934</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8716,13 +8713,13 @@
         <v>151549</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>567</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H30" s="7">
         <v>515</v>
@@ -8731,13 +8728,13 @@
         <v>297238</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>688</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>689</v>
       </c>
       <c r="M30" s="7">
         <v>706</v>
@@ -8746,13 +8743,13 @@
         <v>448787</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>691</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8808,7 +8805,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P0801-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P0801-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18BC171D-E968-4E82-850D-47A2B9D36EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2FA8D6C-BE3B-4865-B560-3E7F4EFCD010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A2D51126-3ADB-41E7-9BBE-CBDEC8443A3B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F99109D-25C0-4AED-86AC-2F5B6D59EB00}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="686">
   <si>
     <t>Población según limitación a hacer esfuerzos moderados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,2047 +71,2032 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>NO, NO LIMITA NADA</t>
+    <t>No, no limita nada</t>
   </si>
   <si>
     <t>98,37%</t>
   </si>
   <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
   </si>
   <si>
     <t>97,97%</t>
   </si>
   <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>Sí, limita un poco</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>Sí, limita mucho</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
     <t>96,9%</t>
   </si>
   <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>SI, LIMITA UN POCO</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>SI, LIMITA MUCHO</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
   </si>
   <si>
     <t>10,07%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
+    <t>16,7%</t>
   </si>
   <si>
     <t>14,06%</t>
   </si>
   <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
+    <t>15,16%</t>
   </si>
   <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
+    <t>11,97%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>5,23%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
   </si>
   <si>
     <t>7,75%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
 </sst>
 </file>
@@ -2523,7 +2508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE1D350-6AF8-42B5-9051-16CD825FDFC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF8D4CC-2EF2-4F5D-B1C7-C7FA874F44D9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3059,13 +3044,13 @@
         <v>612008</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>605</v>
@@ -3074,13 +3059,13 @@
         <v>634509</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>1192</v>
@@ -3089,13 +3074,13 @@
         <v>1246517</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,7 +3095,7 @@
         <v>20266</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>77</v>
@@ -3140,13 +3125,13 @@
         <v>66887</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3146,13 @@
         <v>6394</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -3197,7 +3182,7 @@
         <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,7 +3238,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3265,13 +3250,13 @@
         <v>481553</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>423</v>
@@ -3280,13 +3265,13 @@
         <v>436531</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>870</v>
@@ -3295,13 +3280,13 @@
         <v>918084</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3301,13 @@
         <v>26882</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -3331,13 +3316,13 @@
         <v>60359</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -3346,13 +3331,13 @@
         <v>87241</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3352,13 @@
         <v>10712</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -3382,13 +3367,13 @@
         <v>18752</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -3397,13 +3382,13 @@
         <v>29464</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,7 +3444,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3471,13 +3456,13 @@
         <v>307341</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>287</v>
@@ -3486,13 +3471,13 @@
         <v>292023</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>597</v>
@@ -3501,13 +3486,13 @@
         <v>599365</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3507,13 @@
         <v>58849</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H21" s="7">
         <v>88</v>
@@ -3537,13 +3522,13 @@
         <v>90209</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>150</v>
@@ -3552,13 +3537,13 @@
         <v>149058</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3558,13 @@
         <v>20520</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -3588,13 +3573,13 @@
         <v>21754</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -3603,13 +3588,13 @@
         <v>42274</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,7 +3650,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3677,13 +3662,13 @@
         <v>310944</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>243</v>
@@ -3692,13 +3677,13 @@
         <v>241412</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>564</v>
@@ -3707,13 +3692,13 @@
         <v>552356</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3713,13 @@
         <v>134920</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>298</v>
@@ -3743,13 +3728,13 @@
         <v>308370</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>441</v>
@@ -3758,13 +3743,13 @@
         <v>443290</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3764,13 @@
         <v>56602</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>120</v>
@@ -3794,13 +3779,13 @@
         <v>127061</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>179</v>
@@ -3809,13 +3794,13 @@
         <v>183663</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,16 +3865,16 @@
         <v>2838</v>
       </c>
       <c r="D28" s="7">
-        <v>2910779</v>
+        <v>2910780</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H28" s="7">
         <v>2599</v>
@@ -3898,28 +3883,28 @@
         <v>2655183</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M28" s="7">
         <v>5437</v>
       </c>
       <c r="N28" s="7">
-        <v>5565962</v>
+        <v>5565961</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3919,13 @@
         <v>264201</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H29" s="7">
         <v>524</v>
@@ -3949,13 +3934,13 @@
         <v>540972</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M29" s="7">
         <v>796</v>
@@ -3964,13 +3949,13 @@
         <v>805173</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +3970,13 @@
         <v>101563</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H30" s="7">
         <v>174</v>
@@ -4000,13 +3985,13 @@
         <v>183044</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M30" s="7">
         <v>278</v>
@@ -4015,13 +4000,13 @@
         <v>284606</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,7 +4018,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>39</v>
@@ -4063,7 +4048,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>39</v>
@@ -4077,7 +4062,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4099,7 +4084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4137282-0688-4A13-8B91-A5C66FF9F769}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FD127C-3D58-4D7A-804A-96B1B288636A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4116,7 +4101,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4223,13 +4208,13 @@
         <v>446284</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H4" s="7">
         <v>407</v>
@@ -4238,13 +4223,13 @@
         <v>415539</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M4" s="7">
         <v>845</v>
@@ -4253,13 +4238,13 @@
         <v>861823</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,10 +4277,10 @@
         <v>215</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -4304,13 +4289,13 @@
         <v>16779</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,7 +4316,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4355,13 +4340,13 @@
         <v>5774</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4414,13 @@
         <v>663132</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H8" s="7">
         <v>545</v>
@@ -4444,13 +4429,13 @@
         <v>581817</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>1189</v>
@@ -4459,13 +4444,13 @@
         <v>1244949</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4465,13 @@
         <v>18338</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H9" s="7">
         <v>25</v>
@@ -4495,13 +4480,13 @@
         <v>27396</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M9" s="7">
         <v>43</v>
@@ -4510,13 +4495,13 @@
         <v>45735</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4516,13 @@
         <v>5616</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4546,13 +4531,13 @@
         <v>1042</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4561,13 +4546,13 @@
         <v>6658</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4620,13 @@
         <v>639903</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H12" s="7">
         <v>594</v>
@@ -4650,13 +4635,13 @@
         <v>631179</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M12" s="7">
         <v>1205</v>
@@ -4665,13 +4650,13 @@
         <v>1271081</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>94</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4671,13 @@
         <v>30071</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>257</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
@@ -4701,13 +4686,13 @@
         <v>61993</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -4716,13 +4701,13 @@
         <v>92063</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4722,13 @@
         <v>11889</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -4752,13 +4737,13 @@
         <v>17679</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -4767,13 +4752,13 @@
         <v>29568</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>270</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,7 +4814,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4841,13 +4826,13 @@
         <v>547484</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H16" s="7">
         <v>447</v>
@@ -4856,13 +4841,13 @@
         <v>513612</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M16" s="7">
         <v>934</v>
@@ -4871,13 +4856,13 @@
         <v>1061097</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4877,13 @@
         <v>52948</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
@@ -4907,13 +4892,13 @@
         <v>79424</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -4922,13 +4907,13 @@
         <v>132372</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4928,13 @@
         <v>14185</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -4958,13 +4943,13 @@
         <v>23163</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M18" s="7">
         <v>35</v>
@@ -4973,13 +4958,13 @@
         <v>37348</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,7 +5020,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5047,13 +5032,13 @@
         <v>345261</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -5062,13 +5047,13 @@
         <v>280212</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>570</v>
@@ -5077,13 +5062,13 @@
         <v>625473</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5083,13 @@
         <v>57185</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H21" s="7">
         <v>109</v>
@@ -5113,13 +5098,13 @@
         <v>120444</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M21" s="7">
         <v>162</v>
@@ -5128,13 +5113,13 @@
         <v>177628</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5134,13 @@
         <v>26983</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -5164,13 +5149,13 @@
         <v>47145</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>318</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -5179,13 +5164,13 @@
         <v>74128</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,7 +5226,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5253,13 +5238,13 @@
         <v>283326</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H24" s="7">
         <v>220</v>
@@ -5268,13 +5253,13 @@
         <v>234549</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M24" s="7">
         <v>481</v>
@@ -5283,13 +5268,13 @@
         <v>517875</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5289,13 @@
         <v>169100</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H25" s="7">
         <v>264</v>
@@ -5319,13 +5304,13 @@
         <v>280887</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M25" s="7">
         <v>414</v>
@@ -5334,13 +5319,13 @@
         <v>449987</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5340,13 @@
         <v>107211</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H26" s="7">
         <v>210</v>
@@ -5370,13 +5355,13 @@
         <v>227540</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M26" s="7">
         <v>303</v>
@@ -5385,13 +5370,13 @@
         <v>334750</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5444,13 @@
         <v>2925391</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H28" s="7">
         <v>2468</v>
@@ -5474,13 +5459,13 @@
         <v>2656907</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M28" s="7">
         <v>5224</v>
@@ -5489,13 +5474,13 @@
         <v>5582298</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,13 +5495,13 @@
         <v>334635</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H29" s="7">
         <v>535</v>
@@ -5525,13 +5510,13 @@
         <v>579929</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M29" s="7">
         <v>839</v>
@@ -5540,13 +5525,13 @@
         <v>914564</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,13 +5546,13 @@
         <v>166753</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>217</v>
+        <v>370</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H30" s="7">
         <v>295</v>
@@ -5576,13 +5561,13 @@
         <v>321473</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>287</v>
+        <v>106</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M30" s="7">
         <v>444</v>
@@ -5591,13 +5576,13 @@
         <v>488226</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,7 +5638,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5675,7 +5660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D56BD5-E09D-422F-9B7E-885D108D9912}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087C888C-AD67-435E-B2BE-D4F3E1D7E3A3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5692,7 +5677,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5799,13 +5784,13 @@
         <v>417091</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>377</v>
+        <v>43</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H4" s="7">
         <v>391</v>
@@ -5814,13 +5799,13 @@
         <v>383501</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>18</v>
+        <v>380</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>48</v>
+        <v>381</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M4" s="7">
         <v>782</v>
@@ -5829,13 +5814,13 @@
         <v>800592</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,13 +5835,13 @@
         <v>2372</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>383</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -5865,13 +5850,13 @@
         <v>11228</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -5880,13 +5865,13 @@
         <v>13600</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>388</v>
+        <v>235</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,7 +5889,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>36</v>
@@ -5916,13 +5901,13 @@
         <v>1026</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5931,13 +5916,13 @@
         <v>1026</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>395</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,7 +5996,7 @@
         <v>397</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>398</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
         <v>554</v>
@@ -6020,13 +6005,13 @@
         <v>538224</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M8" s="7">
         <v>1103</v>
@@ -6035,13 +6020,13 @@
         <v>1108532</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,10 +6044,10 @@
         <v>403</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>295</v>
+        <v>405</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -6071,13 +6056,13 @@
         <v>15859</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>405</v>
+        <v>24</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M9" s="7">
         <v>28</v>
@@ -6086,13 +6071,13 @@
         <v>30130</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>407</v>
+        <v>241</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>408</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>409</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6092,13 @@
         <v>5918</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -6122,13 +6107,13 @@
         <v>9461</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>412</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -6137,13 +6122,13 @@
         <v>15378</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6196,13 @@
         <v>634301</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H12" s="7">
         <v>617</v>
@@ -6226,13 +6211,13 @@
         <v>611917</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M12" s="7">
         <v>1222</v>
@@ -6241,13 +6226,13 @@
         <v>1246218</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6247,13 @@
         <v>27751</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>235</v>
+        <v>425</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -6277,13 +6262,13 @@
         <v>40490</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>426</v>
+        <v>53</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -6292,13 +6277,13 @@
         <v>68242</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6298,13 @@
         <v>7045</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>433</v>
+        <v>35</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -6328,13 +6313,13 @@
         <v>8979</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>434</v>
+        <v>268</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>435</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -6343,13 +6328,13 @@
         <v>16023</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>35</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,7 +6390,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6417,13 +6402,13 @@
         <v>570644</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>439</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>440</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>508</v>
@@ -6432,13 +6417,13 @@
         <v>547639</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="M16" s="7">
         <v>1022</v>
@@ -6447,13 +6432,13 @@
         <v>1118283</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6453,13 @@
         <v>47885</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -6483,13 +6468,13 @@
         <v>61917</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -6498,13 +6483,13 @@
         <v>109802</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,13 +6504,13 @@
         <v>27519</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>456</v>
+        <v>298</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -6534,13 +6519,13 @@
         <v>39521</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -6549,13 +6534,13 @@
         <v>67040</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6611,7 +6596,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6623,13 +6608,13 @@
         <v>386754</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>185</v>
+        <v>463</v>
       </c>
       <c r="H20" s="7">
         <v>294</v>
@@ -6638,13 +6623,13 @@
         <v>339748</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="M20" s="7">
         <v>640</v>
@@ -6653,13 +6638,13 @@
         <v>726502</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6674,13 +6659,13 @@
         <v>66816</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="H21" s="7">
         <v>91</v>
@@ -6689,13 +6674,13 @@
         <v>100899</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="M21" s="7">
         <v>149</v>
@@ -6704,13 +6689,13 @@
         <v>167714</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6725,13 +6710,13 @@
         <v>24348</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -6740,10 +6725,10 @@
         <v>56202</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>484</v>
@@ -6758,10 +6743,10 @@
         <v>485</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6817,7 +6802,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6829,13 +6814,13 @@
         <v>344824</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H24" s="7">
         <v>277</v>
@@ -6844,13 +6829,13 @@
         <v>321502</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M24" s="7">
         <v>635</v>
@@ -6859,13 +6844,13 @@
         <v>666327</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,13 +6865,13 @@
         <v>165058</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H25" s="7">
         <v>228</v>
@@ -6895,10 +6880,10 @@
         <v>272232</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>500</v>
+        <v>153</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>501</v>
@@ -6934,10 +6919,10 @@
         <v>505</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="H26" s="7">
         <v>150</v>
@@ -6946,13 +6931,13 @@
         <v>184197</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="M26" s="7">
         <v>240</v>
@@ -6961,13 +6946,13 @@
         <v>265643</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,13 +7020,13 @@
         <v>2923923</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="H28" s="7">
         <v>2641</v>
@@ -7050,13 +7035,13 @@
         <v>2742531</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="M28" s="7">
         <v>5404</v>
@@ -7065,13 +7050,13 @@
         <v>5666454</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,13 +7071,13 @@
         <v>324151</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="H29" s="7">
         <v>444</v>
@@ -7101,13 +7086,13 @@
         <v>502626</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="M29" s="7">
         <v>763</v>
@@ -7116,13 +7101,13 @@
         <v>826777</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7137,13 +7122,13 @@
         <v>146276</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>532</v>
+        <v>318</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>533</v>
+        <v>292</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H30" s="7">
         <v>253</v>
@@ -7152,13 +7137,13 @@
         <v>299385</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="M30" s="7">
         <v>402</v>
@@ -7167,13 +7152,13 @@
         <v>445660</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7229,7 +7214,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -7251,7 +7236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC636BB-5810-4F84-B0A0-058CBC0807A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F13EE6-069E-4194-9B44-64A2482856D8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7268,7 +7253,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7375,13 +7360,13 @@
         <v>370414</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H4" s="7">
         <v>204</v>
@@ -7390,13 +7375,13 @@
         <v>351117</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="M4" s="7">
         <v>373</v>
@@ -7405,13 +7390,13 @@
         <v>721531</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>548</v>
+        <v>396</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7426,13 +7411,13 @@
         <v>7265</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -7441,13 +7426,13 @@
         <v>1436</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>553</v>
+        <v>57</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -7456,13 +7441,13 @@
         <v>8701</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7480,10 +7465,10 @@
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>556</v>
+        <v>249</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -7492,13 +7477,13 @@
         <v>2404</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>265</v>
+        <v>552</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -7513,7 +7498,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7581,13 +7566,13 @@
         <v>406255</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H8" s="7">
         <v>454</v>
@@ -7596,13 +7581,13 @@
         <v>492888</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="M8" s="7">
         <v>741</v>
@@ -7614,10 +7599,10 @@
         <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>565</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7632,13 +7617,13 @@
         <v>16572</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -7647,13 +7632,13 @@
         <v>5360</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>266</v>
+        <v>566</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -7662,13 +7647,13 @@
         <v>21932</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>573</v>
+        <v>413</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7683,13 +7668,13 @@
         <v>5569</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>393</v>
+        <v>569</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>575</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -7704,7 +7689,7 @@
         <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>247</v>
+        <v>572</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -7716,10 +7701,10 @@
         <v>25</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>576</v>
+        <v>393</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,13 +7772,13 @@
         <v>525999</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H12" s="7">
         <v>781</v>
@@ -7802,28 +7787,28 @@
         <v>563908</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>581</v>
+        <v>417</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>419</v>
+        <v>578</v>
       </c>
       <c r="M12" s="7">
         <v>1300</v>
       </c>
       <c r="N12" s="7">
-        <v>1089906</v>
+        <v>1089907</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>585</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,13 +7823,13 @@
         <v>27359</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>586</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>587</v>
+        <v>480</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -7853,13 +7838,13 @@
         <v>34326</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>589</v>
+        <v>446</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>582</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -7868,13 +7853,13 @@
         <v>61685</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7892,10 +7877,10 @@
         <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>119</v>
+        <v>588</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -7904,13 +7889,13 @@
         <v>11610</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>119</v>
+        <v>217</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>589</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>595</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
@@ -7919,13 +7904,13 @@
         <v>15503</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7967,7 +7952,7 @@
         <v>1393</v>
       </c>
       <c r="N15" s="7">
-        <v>1167094</v>
+        <v>1167095</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -7981,7 +7966,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7993,13 +7978,13 @@
         <v>595747</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="H16" s="7">
         <v>986</v>
@@ -8008,28 +7993,28 @@
         <v>639474</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>439</v>
+        <v>594</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="M16" s="7">
         <v>1581</v>
       </c>
       <c r="N16" s="7">
-        <v>1235221</v>
+        <v>1235222</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,13 +8029,13 @@
         <v>101944</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="H17" s="7">
         <v>119</v>
@@ -8059,13 +8044,13 @@
         <v>83436</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="M17" s="7">
         <v>166</v>
@@ -8074,13 +8059,13 @@
         <v>185380</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>508</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8095,13 +8080,13 @@
         <v>26299</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>104</v>
+        <v>609</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>413</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -8110,28 +8095,28 @@
         <v>24352</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>614</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>57</v>
+        <v>290</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>256</v>
+        <v>611</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
       </c>
       <c r="N18" s="7">
-        <v>50650</v>
+        <v>50651</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>616</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8173,7 +8158,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -8187,7 +8172,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8199,13 +8184,13 @@
         <v>479183</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="H20" s="7">
         <v>760</v>
@@ -8214,13 +8199,13 @@
         <v>447504</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="M20" s="7">
         <v>1297</v>
@@ -8229,13 +8214,13 @@
         <v>926687</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8250,13 +8235,13 @@
         <v>88894</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>176</v>
+        <v>625</v>
       </c>
       <c r="H21" s="7">
         <v>176</v>
@@ -8265,13 +8250,13 @@
         <v>108931</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>629</v>
+        <v>134</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="M21" s="7">
         <v>269</v>
@@ -8280,13 +8265,13 @@
         <v>197825</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8301,13 +8286,13 @@
         <v>32080</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>202</v>
+        <v>631</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H22" s="7">
         <v>66</v>
@@ -8316,13 +8301,13 @@
         <v>40628</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>637</v>
+        <v>322</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
@@ -8331,13 +8316,13 @@
         <v>72708</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>387</v>
+        <v>635</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8393,7 +8378,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8402,16 +8387,16 @@
         <v>678</v>
       </c>
       <c r="D24" s="7">
-        <v>456171</v>
+        <v>456170</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H24" s="7">
         <v>744</v>
@@ -8420,13 +8405,13 @@
         <v>503823</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="M24" s="7">
         <v>1422</v>
@@ -8435,13 +8420,13 @@
         <v>959994</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8453,16 +8438,16 @@
         <v>223</v>
       </c>
       <c r="D25" s="7">
-        <v>157877</v>
+        <v>157876</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H25" s="7">
         <v>570</v>
@@ -8471,13 +8456,13 @@
         <v>305536</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="M25" s="7">
         <v>793</v>
@@ -8486,13 +8471,13 @@
         <v>463412</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8507,13 +8492,13 @@
         <v>83708</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="H26" s="7">
         <v>394</v>
@@ -8522,13 +8507,13 @@
         <v>217278</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="M26" s="7">
         <v>521</v>
@@ -8537,13 +8522,13 @@
         <v>300985</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8555,7 +8540,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>39</v>
@@ -8611,13 +8596,13 @@
         <v>2833769</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="H28" s="7">
         <v>3929</v>
@@ -8626,13 +8611,13 @@
         <v>2998714</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="M28" s="7">
         <v>6714</v>
@@ -8641,13 +8626,13 @@
         <v>5832483</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8662,13 +8647,13 @@
         <v>399910</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="H29" s="7">
         <v>922</v>
@@ -8677,13 +8662,13 @@
         <v>539024</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>679</v>
+        <v>606</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="M29" s="7">
         <v>1322</v>
@@ -8692,13 +8677,13 @@
         <v>938934</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>683</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8713,13 +8698,13 @@
         <v>151549</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>567</v>
+        <v>681</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="H30" s="7">
         <v>515</v>
@@ -8728,13 +8713,13 @@
         <v>297238</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="M30" s="7">
         <v>706</v>
@@ -8743,13 +8728,13 @@
         <v>448787</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>689</v>
+        <v>198</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>690</v>
+        <v>371</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>79</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8805,7 +8790,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P0801-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P0801-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2FA8D6C-BE3B-4865-B560-3E7F4EFCD010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F407FF61-9FBE-4CA6-AC24-5A507C31F0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F99109D-25C0-4AED-86AC-2F5B6D59EB00}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5414249C-3300-4155-98B8-226D086DDBCA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="794">
   <si>
     <t>Población según limitación a hacer esfuerzos moderados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No, no limita nada</t>
@@ -161,7 +161,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>96,93%</t>
@@ -242,7 +242,7 @@
     <t>1,35%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>93,99%</t>
@@ -317,7 +317,7 @@
     <t>0,64%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>92,76%</t>
@@ -401,7 +401,7 @@
     <t>4,07%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>79,48%</t>
@@ -485,616 +485,784 @@
     <t>7,18%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
   </si>
   <si>
     <t>35,67%</t>
   </si>
   <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
   </si>
   <si>
     <t>85,37%</t>
@@ -1505,598 +1673,754 @@
     <t>10,19%</t>
   </si>
   <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
   </si>
   <si>
     <t>20,52%</t>
   </si>
   <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>Población según limitación a hacer esfuerzos moderados en 2023 (Tasa respuesta: 99,99%)</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
   </si>
   <si>
     <t>18,63%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
   </si>
 </sst>
 </file>
@@ -2508,8 +2832,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF8D4CC-2EF2-4F5D-B1C7-C7FA874F44D9}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE03648-5D2D-485C-B134-1A7A0AD0F722}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3656,10 +3980,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>321</v>
+        <v>218</v>
       </c>
       <c r="D24" s="7">
-        <v>310944</v>
+        <v>212993</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>149</v>
@@ -3671,10 +3995,10 @@
         <v>151</v>
       </c>
       <c r="H24" s="7">
-        <v>243</v>
+        <v>174</v>
       </c>
       <c r="I24" s="7">
-        <v>241412</v>
+        <v>160537</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>152</v>
@@ -3686,10 +4010,10 @@
         <v>154</v>
       </c>
       <c r="M24" s="7">
-        <v>564</v>
+        <v>392</v>
       </c>
       <c r="N24" s="7">
-        <v>552356</v>
+        <v>373531</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>155</v>
@@ -3707,10 +4031,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="D25" s="7">
-        <v>134920</v>
+        <v>58796</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>158</v>
@@ -3722,10 +4046,10 @@
         <v>160</v>
       </c>
       <c r="H25" s="7">
-        <v>298</v>
+        <v>151</v>
       </c>
       <c r="I25" s="7">
-        <v>308370</v>
+        <v>139407</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>161</v>
@@ -3737,10 +4061,10 @@
         <v>163</v>
       </c>
       <c r="M25" s="7">
-        <v>441</v>
+        <v>214</v>
       </c>
       <c r="N25" s="7">
-        <v>443290</v>
+        <v>198203</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>164</v>
@@ -3758,10 +4082,10 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D26" s="7">
-        <v>56602</v>
+        <v>20793</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>167</v>
@@ -3773,10 +4097,10 @@
         <v>169</v>
       </c>
       <c r="H26" s="7">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="I26" s="7">
-        <v>127061</v>
+        <v>42990</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>170</v>
@@ -3788,10 +4112,10 @@
         <v>172</v>
       </c>
       <c r="M26" s="7">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="N26" s="7">
-        <v>183663</v>
+        <v>63783</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>173</v>
@@ -3809,10 +4133,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>39</v>
@@ -3824,10 +4148,10 @@
         <v>39</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>39</v>
@@ -3839,10 +4163,10 @@
         <v>39</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>39</v>
@@ -3856,55 +4180,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2838</v>
+        <v>103</v>
       </c>
       <c r="D28" s="7">
-        <v>2910780</v>
+        <v>97951</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H28" s="7">
-        <v>2599</v>
+        <v>69</v>
       </c>
       <c r="I28" s="7">
-        <v>2655183</v>
+        <v>80874</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M28" s="7">
-        <v>5437</v>
+        <v>172</v>
       </c>
       <c r="N28" s="7">
-        <v>5565961</v>
+        <v>178825</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,49 +4237,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="D29" s="7">
-        <v>264201</v>
+        <v>76124</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H29" s="7">
-        <v>524</v>
+        <v>147</v>
       </c>
       <c r="I29" s="7">
-        <v>540972</v>
+        <v>168963</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M29" s="7">
-        <v>796</v>
+        <v>227</v>
       </c>
       <c r="N29" s="7">
-        <v>805173</v>
+        <v>245087</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,49 +4288,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="D30" s="7">
-        <v>101563</v>
+        <v>35809</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H30" s="7">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="I30" s="7">
-        <v>183044</v>
+        <v>84071</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M30" s="7">
-        <v>278</v>
+        <v>111</v>
       </c>
       <c r="N30" s="7">
-        <v>284606</v>
+        <v>119879</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,63 +4339,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2838</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2910779</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2599</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2655182</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5437</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5565962</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>272</v>
+      </c>
+      <c r="D33" s="7">
+        <v>264201</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33" s="7">
+        <v>524</v>
+      </c>
+      <c r="I33" s="7">
+        <v>540972</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M33" s="7">
+        <v>796</v>
+      </c>
+      <c r="N33" s="7">
+        <v>805173</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>104</v>
+      </c>
+      <c r="D34" s="7">
+        <v>101563</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="7">
+        <v>174</v>
+      </c>
+      <c r="I34" s="7">
+        <v>183043</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M34" s="7">
+        <v>278</v>
+      </c>
+      <c r="N34" s="7">
+        <v>284606</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3214</v>
       </c>
-      <c r="D31" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="7">
         <v>3297</v>
       </c>
-      <c r="I31" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="7">
         <v>6511</v>
       </c>
-      <c r="N31" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>202</v>
+      <c r="N35" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4084,8 +4615,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FD127C-3D58-4D7A-804A-96B1B288636A}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C471151A-5034-448B-8AE2-7D57DC20C4CF}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4101,7 +4632,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4208,13 +4739,13 @@
         <v>446284</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>407</v>
@@ -4223,13 +4754,13 @@
         <v>415539</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>845</v>
@@ -4238,13 +4769,13 @@
         <v>861823</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,10 +4793,10 @@
         <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -4274,13 +4805,13 @@
         <v>9785</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>90</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -4289,13 +4820,13 @@
         <v>16779</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>38</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,7 +4847,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4325,13 +4856,13 @@
         <v>4906</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -4340,13 +4871,13 @@
         <v>5774</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4945,13 @@
         <v>663132</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>545</v>
@@ -4429,13 +4960,13 @@
         <v>581817</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>1189</v>
@@ -4444,10 +4975,10 @@
         <v>1244949</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>41</v>
@@ -4465,13 +4996,13 @@
         <v>18338</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="H9" s="7">
         <v>25</v>
@@ -4480,13 +5011,13 @@
         <v>27396</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="M9" s="7">
         <v>43</v>
@@ -4495,13 +5026,13 @@
         <v>45735</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,10 +5047,10 @@
         <v>5616</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>111</v>
@@ -4531,13 +5062,13 @@
         <v>1042</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4546,13 +5077,13 @@
         <v>6658</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +5151,13 @@
         <v>639903</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="H12" s="7">
         <v>594</v>
@@ -4635,13 +5166,13 @@
         <v>631179</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="M12" s="7">
         <v>1205</v>
@@ -4650,13 +5181,13 @@
         <v>1271081</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +5202,13 @@
         <v>30071</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
@@ -4686,13 +5217,13 @@
         <v>61993</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -4701,13 +5232,13 @@
         <v>92063</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +5253,13 @@
         <v>11889</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -4737,13 +5268,13 @@
         <v>17679</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -4752,13 +5283,13 @@
         <v>29568</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +5357,13 @@
         <v>547484</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="H16" s="7">
         <v>447</v>
@@ -4841,13 +5372,13 @@
         <v>513612</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="M16" s="7">
         <v>934</v>
@@ -4856,13 +5387,13 @@
         <v>1061097</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +5408,13 @@
         <v>52948</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
@@ -4892,13 +5423,13 @@
         <v>79424</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -4907,13 +5438,13 @@
         <v>132372</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +5459,13 @@
         <v>14185</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -4943,13 +5474,13 @@
         <v>23163</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="M18" s="7">
         <v>35</v>
@@ -4958,13 +5489,13 @@
         <v>37348</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5563,13 @@
         <v>345261</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -5047,13 +5578,13 @@
         <v>280212</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="M20" s="7">
         <v>570</v>
@@ -5062,13 +5593,13 @@
         <v>625473</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5614,13 @@
         <v>57185</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="H21" s="7">
         <v>109</v>
@@ -5098,13 +5629,13 @@
         <v>120444</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="M21" s="7">
         <v>162</v>
@@ -5113,13 +5644,13 @@
         <v>177628</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5665,13 @@
         <v>26983</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -5149,13 +5680,13 @@
         <v>47145</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -5164,13 +5695,13 @@
         <v>74128</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,49 +5763,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>261</v>
+        <v>188</v>
       </c>
       <c r="D24" s="7">
-        <v>283326</v>
+        <v>202220</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="H24" s="7">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="I24" s="7">
-        <v>234549</v>
+        <v>160294</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="M24" s="7">
-        <v>481</v>
+        <v>341</v>
       </c>
       <c r="N24" s="7">
-        <v>517875</v>
+        <v>362514</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,49 +5814,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="D25" s="7">
-        <v>169100</v>
+        <v>71943</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="H25" s="7">
-        <v>264</v>
+        <v>124</v>
       </c>
       <c r="I25" s="7">
-        <v>280887</v>
+        <v>125641</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="M25" s="7">
-        <v>414</v>
+        <v>186</v>
       </c>
       <c r="N25" s="7">
-        <v>449987</v>
+        <v>197584</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,49 +5865,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="D26" s="7">
-        <v>107211</v>
+        <v>35623</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="H26" s="7">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="I26" s="7">
-        <v>227540</v>
+        <v>68062</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="M26" s="7">
-        <v>303</v>
+        <v>99</v>
       </c>
       <c r="N26" s="7">
-        <v>334750</v>
+        <v>103685</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5385,10 +5916,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>39</v>
@@ -5400,10 +5931,10 @@
         <v>39</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>39</v>
@@ -5415,10 +5946,10 @@
         <v>39</v>
       </c>
       <c r="M27" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>39</v>
@@ -5432,55 +5963,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2756</v>
+        <v>73</v>
       </c>
       <c r="D28" s="7">
-        <v>2925391</v>
+        <v>81107</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="H28" s="7">
-        <v>2468</v>
+        <v>67</v>
       </c>
       <c r="I28" s="7">
-        <v>2656907</v>
+        <v>74255</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="M28" s="7">
-        <v>5224</v>
+        <v>140</v>
       </c>
       <c r="N28" s="7">
-        <v>5582298</v>
+        <v>155361</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,49 +6020,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>304</v>
+        <v>88</v>
       </c>
       <c r="D29" s="7">
-        <v>334635</v>
+        <v>97157</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="H29" s="7">
-        <v>535</v>
+        <v>140</v>
       </c>
       <c r="I29" s="7">
-        <v>579929</v>
+        <v>155246</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="M29" s="7">
-        <v>839</v>
+        <v>228</v>
       </c>
       <c r="N29" s="7">
-        <v>914564</v>
+        <v>252403</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>321</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,49 +6071,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="D30" s="7">
-        <v>166753</v>
+        <v>71588</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="H30" s="7">
-        <v>295</v>
+        <v>143</v>
       </c>
       <c r="I30" s="7">
-        <v>321473</v>
+        <v>159478</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>106</v>
+        <v>402</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="M30" s="7">
-        <v>444</v>
+        <v>204</v>
       </c>
       <c r="N30" s="7">
-        <v>488226</v>
+        <v>231066</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,63 +6122,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2756</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2925391</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2468</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2656907</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5224</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5582298</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>304</v>
+      </c>
+      <c r="D33" s="7">
+        <v>334635</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H33" s="7">
+        <v>535</v>
+      </c>
+      <c r="I33" s="7">
+        <v>579929</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="M33" s="7">
+        <v>839</v>
+      </c>
+      <c r="N33" s="7">
+        <v>914564</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>149</v>
+      </c>
+      <c r="D34" s="7">
+        <v>166753</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="H34" s="7">
+        <v>295</v>
+      </c>
+      <c r="I34" s="7">
+        <v>321473</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="M34" s="7">
+        <v>444</v>
+      </c>
+      <c r="N34" s="7">
+        <v>488226</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3209</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3426779</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="7">
         <v>3298</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3558309</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="7">
         <v>6507</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6985088</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>202</v>
+      <c r="O35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5660,8 +6398,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087C888C-AD67-435E-B2BE-D4F3E1D7E3A3}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C767F2-53BB-4484-A872-DF0B9983D5A8}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5677,7 +6415,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5784,13 +6522,13 @@
         <v>417091</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="H4" s="7">
         <v>391</v>
@@ -5799,13 +6537,13 @@
         <v>383501</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>380</v>
+        <v>436</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>381</v>
+        <v>437</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>382</v>
+        <v>438</v>
       </c>
       <c r="M4" s="7">
         <v>782</v>
@@ -5814,13 +6552,13 @@
         <v>800592</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>384</v>
+        <v>440</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,7 +6579,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -5850,13 +6588,13 @@
         <v>11228</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>388</v>
+        <v>444</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>389</v>
+        <v>445</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -5865,13 +6603,13 @@
         <v>13600</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>390</v>
+        <v>446</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>391</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,7 +6627,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>36</v>
@@ -5901,13 +6639,13 @@
         <v>1026</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5916,13 +6654,13 @@
         <v>1026</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>395</v>
+        <v>451</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,10 +6728,10 @@
         <v>570308</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -6005,13 +6743,13 @@
         <v>538224</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="M8" s="7">
         <v>1103</v>
@@ -6020,13 +6758,13 @@
         <v>1108532</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>401</v>
+        <v>457</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>95</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>402</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6779,13 @@
         <v>14270</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>405</v>
+        <v>461</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -6056,13 +6794,13 @@
         <v>15859</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>406</v>
+        <v>462</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>407</v>
+        <v>463</v>
       </c>
       <c r="M9" s="7">
         <v>28</v>
@@ -6071,13 +6809,13 @@
         <v>30130</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6095,10 +6833,10 @@
         <v>85</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>409</v>
+        <v>465</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>410</v>
+        <v>466</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -6107,13 +6845,13 @@
         <v>9461</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>411</v>
+        <v>467</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -6122,13 +6860,13 @@
         <v>15378</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6934,13 @@
         <v>634301</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="H12" s="7">
         <v>617</v>
@@ -6211,13 +6949,13 @@
         <v>611917</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
       <c r="M12" s="7">
         <v>1222</v>
@@ -6226,13 +6964,13 @@
         <v>1246218</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>422</v>
+        <v>478</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>423</v>
+        <v>479</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6985,13 @@
         <v>27751</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -6262,13 +7000,13 @@
         <v>40490</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -6277,13 +7015,13 @@
         <v>68242</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,10 +7036,10 @@
         <v>7045</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>35</v>
@@ -6313,13 +7051,13 @@
         <v>8979</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -6328,13 +7066,13 @@
         <v>16023</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,10 +7140,10 @@
         <v>570644</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>101</v>
@@ -6417,13 +7155,13 @@
         <v>547639</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="M16" s="7">
         <v>1022</v>
@@ -6432,13 +7170,13 @@
         <v>1118283</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,13 +7191,13 @@
         <v>47885</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -6468,13 +7206,13 @@
         <v>61917</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -6483,13 +7221,13 @@
         <v>109802</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>453</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,13 +7242,13 @@
         <v>27519</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>454</v>
+        <v>510</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>455</v>
+        <v>511</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -6519,13 +7257,13 @@
         <v>39521</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>456</v>
+        <v>512</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>457</v>
+        <v>513</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>458</v>
+        <v>514</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -6537,10 +7275,10 @@
         <v>102</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>459</v>
+        <v>515</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6608,13 +7346,13 @@
         <v>386754</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="H20" s="7">
         <v>294</v>
@@ -6623,13 +7361,13 @@
         <v>339748</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="M20" s="7">
         <v>640</v>
@@ -6638,13 +7376,13 @@
         <v>726502</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>468</v>
+        <v>524</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6659,13 +7397,13 @@
         <v>66816</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="H21" s="7">
         <v>91</v>
@@ -6674,13 +7412,13 @@
         <v>100899</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="M21" s="7">
         <v>149</v>
@@ -6689,13 +7427,13 @@
         <v>167714</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6710,13 +7448,13 @@
         <v>24348</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -6725,13 +7463,13 @@
         <v>56202</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -6740,13 +7478,13 @@
         <v>80551</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,49 +7546,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>358</v>
+        <v>224</v>
       </c>
       <c r="D24" s="7">
-        <v>344824</v>
+        <v>231472</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="H24" s="7">
-        <v>277</v>
+        <v>187</v>
       </c>
       <c r="I24" s="7">
-        <v>321502</v>
+        <v>201347</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="M24" s="7">
-        <v>635</v>
+        <v>411</v>
       </c>
       <c r="N24" s="7">
-        <v>666327</v>
+        <v>432819</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>494</v>
+        <v>550</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>495</v>
+        <v>551</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>496</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,49 +7597,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="D25" s="7">
-        <v>165058</v>
+        <v>70723</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="H25" s="7">
-        <v>228</v>
+        <v>115</v>
       </c>
       <c r="I25" s="7">
-        <v>272232</v>
+        <v>122392</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>153</v>
+        <v>557</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="M25" s="7">
-        <v>407</v>
+        <v>184</v>
       </c>
       <c r="N25" s="7">
-        <v>437290</v>
+        <v>193115</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>504</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6910,49 +7648,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="D26" s="7">
-        <v>81446</v>
+        <v>32135</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>191</v>
+        <v>563</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>506</v>
+        <v>564</v>
       </c>
       <c r="H26" s="7">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="I26" s="7">
-        <v>184197</v>
+        <v>54022</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>507</v>
+        <v>565</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>508</v>
+        <v>566</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>509</v>
+        <v>567</v>
       </c>
       <c r="M26" s="7">
-        <v>240</v>
+        <v>84</v>
       </c>
       <c r="N26" s="7">
-        <v>265643</v>
+        <v>86157</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>510</v>
+        <v>219</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6961,10 +7699,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>39</v>
@@ -6976,10 +7714,10 @@
         <v>39</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>39</v>
@@ -6991,10 +7729,10 @@
         <v>39</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>39</v>
@@ -7008,55 +7746,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2763</v>
+        <v>134</v>
       </c>
       <c r="D28" s="7">
-        <v>2923923</v>
+        <v>113352</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="H28" s="7">
-        <v>2641</v>
+        <v>90</v>
       </c>
       <c r="I28" s="7">
-        <v>2742531</v>
+        <v>120155</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="M28" s="7">
-        <v>5404</v>
+        <v>224</v>
       </c>
       <c r="N28" s="7">
-        <v>5666454</v>
+        <v>233507</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>521</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,49 +7803,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>319</v>
+        <v>110</v>
       </c>
       <c r="D29" s="7">
-        <v>324151</v>
+        <v>94335</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>522</v>
+        <v>578</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>523</v>
+        <v>579</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>524</v>
+        <v>580</v>
       </c>
       <c r="H29" s="7">
-        <v>444</v>
+        <v>113</v>
       </c>
       <c r="I29" s="7">
-        <v>502626</v>
+        <v>149840</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>525</v>
+        <v>581</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>526</v>
+        <v>406</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>527</v>
+        <v>582</v>
       </c>
       <c r="M29" s="7">
-        <v>763</v>
+        <v>223</v>
       </c>
       <c r="N29" s="7">
-        <v>826777</v>
+        <v>244175</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>528</v>
+        <v>583</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>530</v>
+        <v>585</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7116,49 +7854,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="D30" s="7">
-        <v>146276</v>
+        <v>49311</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>318</v>
+        <v>132</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>292</v>
+        <v>107</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>531</v>
+        <v>586</v>
       </c>
       <c r="H30" s="7">
-        <v>253</v>
+        <v>98</v>
       </c>
       <c r="I30" s="7">
-        <v>299385</v>
+        <v>130174</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>322</v>
+        <v>587</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>532</v>
+        <v>588</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>533</v>
+        <v>589</v>
       </c>
       <c r="M30" s="7">
-        <v>402</v>
+        <v>156</v>
       </c>
       <c r="N30" s="7">
-        <v>445660</v>
+        <v>179485</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>534</v>
+        <v>590</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>535</v>
+        <v>386</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>536</v>
+        <v>591</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,63 +7905,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2763</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2923923</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2641</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2742531</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5404</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5666454</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>319</v>
+      </c>
+      <c r="D33" s="7">
+        <v>324151</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="H33" s="7">
+        <v>444</v>
+      </c>
+      <c r="I33" s="7">
+        <v>502626</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="M33" s="7">
+        <v>763</v>
+      </c>
+      <c r="N33" s="7">
+        <v>826777</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>149</v>
+      </c>
+      <c r="D34" s="7">
+        <v>146276</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="H34" s="7">
+        <v>253</v>
+      </c>
+      <c r="I34" s="7">
+        <v>299385</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="M34" s="7">
+        <v>402</v>
+      </c>
+      <c r="N34" s="7">
+        <v>445660</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3231</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3394350</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="7">
         <v>3338</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3544542</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="7">
         <v>6569</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6938892</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>202</v>
+      <c r="O35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7236,8 +8181,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F13EE6-069E-4194-9B44-64A2482856D8}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD0F90E-FD55-4BC5-A049-58348FE33AEB}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7253,7 +8198,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>537</v>
+        <v>615</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7357,46 +8302,46 @@
         <v>169</v>
       </c>
       <c r="D4" s="7">
-        <v>370414</v>
+        <v>392520</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>538</v>
+        <v>43</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>539</v>
+        <v>616</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>540</v>
+        <v>617</v>
       </c>
       <c r="H4" s="7">
         <v>204</v>
       </c>
       <c r="I4" s="7">
-        <v>351117</v>
+        <v>310263</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>541</v>
+        <v>618</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>542</v>
+        <v>619</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>543</v>
+        <v>620</v>
       </c>
       <c r="M4" s="7">
         <v>373</v>
       </c>
       <c r="N4" s="7">
-        <v>721531</v>
+        <v>702783</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>544</v>
+        <v>621</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>396</v>
+        <v>622</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>545</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7408,46 +8353,46 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>7265</v>
+        <v>7467</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>546</v>
+        <v>442</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>547</v>
+        <v>624</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1436</v>
+        <v>1153</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>548</v>
+        <v>625</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>57</v>
+        <v>626</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>8701</v>
+        <v>8620</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>549</v>
+        <v>627</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>550</v>
+        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7465,40 +8410,40 @@
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>2404</v>
+        <v>1784</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>551</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>552</v>
+        <v>270</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>2404</v>
+        <v>1784</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>60</v>
+        <v>629</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>553</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,7 +8455,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -7525,7 +8470,7 @@
         <v>207</v>
       </c>
       <c r="I7" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -7540,7 +8485,7 @@
         <v>379</v>
       </c>
       <c r="N7" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
@@ -7563,46 +8508,46 @@
         <v>287</v>
       </c>
       <c r="D8" s="7">
-        <v>406255</v>
+        <v>401199</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>554</v>
+        <v>630</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>555</v>
+        <v>631</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>556</v>
+        <v>632</v>
       </c>
       <c r="H8" s="7">
         <v>454</v>
       </c>
       <c r="I8" s="7">
-        <v>492888</v>
+        <v>506417</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>557</v>
+        <v>633</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>558</v>
+        <v>634</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>559</v>
+        <v>635</v>
       </c>
       <c r="M8" s="7">
         <v>741</v>
       </c>
       <c r="N8" s="7">
-        <v>899143</v>
+        <v>907616</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>636</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>560</v>
+        <v>637</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,46 +8559,46 @@
         <v>10</v>
       </c>
       <c r="D9" s="7">
-        <v>16572</v>
+        <v>17459</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>561</v>
+        <v>426</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>562</v>
+        <v>638</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>563</v>
+        <v>639</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
       </c>
       <c r="I9" s="7">
-        <v>5360</v>
+        <v>4762</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>564</v>
+        <v>640</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>565</v>
+        <v>641</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>566</v>
+        <v>466</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
       </c>
       <c r="N9" s="7">
-        <v>21932</v>
+        <v>22221</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>567</v>
+        <v>642</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>413</v>
+        <v>643</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>568</v>
+        <v>644</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7665,46 +8610,46 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>5569</v>
+        <v>4889</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>569</v>
+        <v>645</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>570</v>
+        <v>646</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>571</v>
+        <v>443</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>967</v>
+        <v>914</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>647</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>572</v>
+        <v>648</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>6536</v>
+        <v>5803</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>393</v>
+        <v>649</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>573</v>
+        <v>650</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7716,7 +8661,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -7731,7 +8676,7 @@
         <v>461</v>
       </c>
       <c r="I11" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -7746,7 +8691,7 @@
         <v>763</v>
       </c>
       <c r="N11" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -7769,46 +8714,46 @@
         <v>519</v>
       </c>
       <c r="D12" s="7">
-        <v>525999</v>
+        <v>505604</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>574</v>
+        <v>651</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>575</v>
+        <v>652</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>576</v>
+        <v>653</v>
       </c>
       <c r="H12" s="7">
         <v>781</v>
       </c>
       <c r="I12" s="7">
-        <v>563908</v>
+        <v>549203</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>417</v>
+        <v>654</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>577</v>
+        <v>655</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>578</v>
+        <v>656</v>
       </c>
       <c r="M12" s="7">
         <v>1300</v>
       </c>
       <c r="N12" s="7">
-        <v>1089907</v>
+        <v>1054806</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>579</v>
+        <v>657</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>580</v>
+        <v>658</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>227</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,46 +8765,46 @@
         <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>27359</v>
+        <v>27074</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>659</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>480</v>
+        <v>660</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>581</v>
+        <v>661</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
       </c>
       <c r="I13" s="7">
-        <v>34326</v>
+        <v>31439</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>446</v>
+        <v>662</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>582</v>
+        <v>114</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>583</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
       </c>
       <c r="N13" s="7">
-        <v>61685</v>
+        <v>58513</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>584</v>
+        <v>663</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>585</v>
+        <v>664</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>586</v>
+        <v>665</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7871,46 +8816,46 @@
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>3894</v>
+        <v>3660</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>25</v>
+        <v>666</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>587</v>
+        <v>37</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>588</v>
+        <v>466</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
       </c>
       <c r="I14" s="7">
-        <v>11610</v>
+        <v>10815</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>667</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>589</v>
+        <v>668</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>669</v>
       </c>
       <c r="M14" s="7">
         <v>19</v>
       </c>
       <c r="N14" s="7">
-        <v>15503</v>
+        <v>14475</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>413</v>
+        <v>670</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>243</v>
+        <v>671</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>590</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7922,7 +8867,7 @@
         <v>546</v>
       </c>
       <c r="D15" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -7937,7 +8882,7 @@
         <v>847</v>
       </c>
       <c r="I15" s="7">
-        <v>609843</v>
+        <v>591457</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -7952,7 +8897,7 @@
         <v>1393</v>
       </c>
       <c r="N15" s="7">
-        <v>1167095</v>
+        <v>1127795</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -7975,46 +8920,46 @@
         <v>595</v>
       </c>
       <c r="D16" s="7">
-        <v>595747</v>
+        <v>570608</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>591</v>
+        <v>673</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>592</v>
+        <v>674</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>593</v>
+        <v>675</v>
       </c>
       <c r="H16" s="7">
         <v>986</v>
       </c>
       <c r="I16" s="7">
-        <v>639474</v>
+        <v>614944</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>594</v>
+        <v>676</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>595</v>
+        <v>677</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>596</v>
+        <v>678</v>
       </c>
       <c r="M16" s="7">
         <v>1581</v>
       </c>
       <c r="N16" s="7">
-        <v>1235222</v>
+        <v>1185552</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>597</v>
+        <v>679</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>598</v>
+        <v>680</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>599</v>
+        <v>681</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8026,46 +8971,46 @@
         <v>47</v>
       </c>
       <c r="D17" s="7">
-        <v>101944</v>
+        <v>291545</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>600</v>
+        <v>682</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>601</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>602</v>
+        <v>683</v>
       </c>
       <c r="H17" s="7">
         <v>119</v>
       </c>
       <c r="I17" s="7">
-        <v>83436</v>
+        <v>75648</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>603</v>
+        <v>684</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>604</v>
+        <v>685</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>605</v>
+        <v>686</v>
       </c>
       <c r="M17" s="7">
         <v>166</v>
       </c>
       <c r="N17" s="7">
-        <v>185380</v>
+        <v>367192</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>606</v>
+        <v>687</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>607</v>
+        <v>688</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>608</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8077,46 +9022,46 @@
         <v>23</v>
       </c>
       <c r="D18" s="7">
-        <v>26299</v>
+        <v>25634</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>609</v>
+        <v>247</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>690</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>610</v>
+        <v>691</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
       </c>
       <c r="I18" s="7">
-        <v>24352</v>
+        <v>22289</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>290</v>
+        <v>692</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>611</v>
+        <v>327</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
       </c>
       <c r="N18" s="7">
-        <v>50651</v>
+        <v>47923</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>612</v>
+        <v>693</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>29</v>
+        <v>442</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>613</v>
+        <v>694</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8128,7 +9073,7 @@
         <v>665</v>
       </c>
       <c r="D19" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -8143,7 +9088,7 @@
         <v>1141</v>
       </c>
       <c r="I19" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -8158,7 +9103,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -8181,46 +9126,46 @@
         <v>537</v>
       </c>
       <c r="D20" s="7">
-        <v>479183</v>
+        <v>448002</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>614</v>
+        <v>695</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>615</v>
+        <v>696</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>616</v>
+        <v>697</v>
       </c>
       <c r="H20" s="7">
         <v>760</v>
       </c>
       <c r="I20" s="7">
-        <v>447504</v>
+        <v>411359</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>617</v>
+        <v>698</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>618</v>
+        <v>699</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>619</v>
+        <v>700</v>
       </c>
       <c r="M20" s="7">
         <v>1297</v>
       </c>
       <c r="N20" s="7">
-        <v>926687</v>
+        <v>859360</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>620</v>
+        <v>701</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>621</v>
+        <v>702</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>622</v>
+        <v>703</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8232,46 +9177,46 @@
         <v>93</v>
       </c>
       <c r="D21" s="7">
-        <v>88894</v>
+        <v>83762</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>623</v>
+        <v>217</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>624</v>
+        <v>704</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>625</v>
+        <v>705</v>
       </c>
       <c r="H21" s="7">
         <v>176</v>
       </c>
       <c r="I21" s="7">
-        <v>108931</v>
+        <v>99540</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>706</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>626</v>
+        <v>707</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>627</v>
+        <v>708</v>
       </c>
       <c r="M21" s="7">
         <v>269</v>
       </c>
       <c r="N21" s="7">
-        <v>197825</v>
+        <v>183302</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>628</v>
+        <v>709</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>629</v>
+        <v>710</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>630</v>
+        <v>711</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8283,46 +9228,46 @@
         <v>33</v>
       </c>
       <c r="D22" s="7">
-        <v>32080</v>
+        <v>29471</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>712</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>631</v>
+        <v>713</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>449</v>
+        <v>714</v>
       </c>
       <c r="H22" s="7">
         <v>66</v>
       </c>
       <c r="I22" s="7">
-        <v>40628</v>
+        <v>37006</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>632</v>
+        <v>352</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>633</v>
+        <v>715</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>322</v>
+        <v>716</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
       </c>
       <c r="N22" s="7">
-        <v>72708</v>
+        <v>66477</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>634</v>
+        <v>717</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>635</v>
+        <v>718</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>636</v>
+        <v>719</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8334,7 +9279,7 @@
         <v>663</v>
       </c>
       <c r="D23" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>39</v>
@@ -8349,7 +9294,7 @@
         <v>1002</v>
       </c>
       <c r="I23" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>39</v>
@@ -8364,7 +9309,7 @@
         <v>1665</v>
       </c>
       <c r="N23" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>39</v>
@@ -8384,49 +9329,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>678</v>
+        <v>442</v>
       </c>
       <c r="D24" s="7">
-        <v>456170</v>
+        <v>283264</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>637</v>
+        <v>720</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>638</v>
+        <v>721</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>639</v>
+        <v>722</v>
       </c>
       <c r="H24" s="7">
-        <v>744</v>
+        <v>512</v>
       </c>
       <c r="I24" s="7">
-        <v>503823</v>
+        <v>452843</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>640</v>
+        <v>723</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>641</v>
+        <v>724</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>642</v>
+        <v>725</v>
       </c>
       <c r="M24" s="7">
-        <v>1422</v>
+        <v>954</v>
       </c>
       <c r="N24" s="7">
-        <v>959994</v>
+        <v>736107</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>643</v>
+        <v>726</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>644</v>
+        <v>727</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>645</v>
+        <v>728</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8435,49 +9380,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c r="D25" s="7">
-        <v>157876</v>
+        <v>58632</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>646</v>
+        <v>729</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>647</v>
+        <v>423</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>648</v>
+        <v>730</v>
       </c>
       <c r="H25" s="7">
-        <v>570</v>
+        <v>239</v>
       </c>
       <c r="I25" s="7">
-        <v>305536</v>
+        <v>118335</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>649</v>
+        <v>731</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>650</v>
+        <v>732</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>651</v>
+        <v>733</v>
       </c>
       <c r="M25" s="7">
-        <v>793</v>
+        <v>328</v>
       </c>
       <c r="N25" s="7">
-        <v>463412</v>
+        <v>176967</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>652</v>
+        <v>734</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>653</v>
+        <v>735</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>654</v>
+        <v>736</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8486,49 +9431,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="D26" s="7">
-        <v>83708</v>
+        <v>26268</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>655</v>
+        <v>737</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>656</v>
+        <v>738</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>657</v>
+        <v>739</v>
       </c>
       <c r="H26" s="7">
-        <v>394</v>
+        <v>76</v>
       </c>
       <c r="I26" s="7">
-        <v>217278</v>
+        <v>37191</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>658</v>
+        <v>740</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>659</v>
+        <v>741</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>660</v>
+        <v>742</v>
       </c>
       <c r="M26" s="7">
-        <v>521</v>
+        <v>115</v>
       </c>
       <c r="N26" s="7">
-        <v>300985</v>
+        <v>63459</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>661</v>
+        <v>743</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>662</v>
+        <v>744</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>663</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8537,10 +9482,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>39</v>
@@ -8552,10 +9497,10 @@
         <v>39</v>
       </c>
       <c r="H27" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I27" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>39</v>
@@ -8567,10 +9512,10 @@
         <v>39</v>
       </c>
       <c r="M27" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N27" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>39</v>
@@ -8584,55 +9529,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2785</v>
+        <v>236</v>
       </c>
       <c r="D28" s="7">
-        <v>2833769</v>
+        <v>141812</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>664</v>
+        <v>745</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>665</v>
+        <v>746</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>666</v>
+        <v>747</v>
       </c>
       <c r="H28" s="7">
-        <v>3929</v>
+        <v>232</v>
       </c>
       <c r="I28" s="7">
-        <v>2998714</v>
+        <v>110841</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>667</v>
+        <v>748</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>668</v>
+        <v>749</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>669</v>
+        <v>750</v>
       </c>
       <c r="M28" s="7">
-        <v>6714</v>
+        <v>468</v>
       </c>
       <c r="N28" s="7">
-        <v>5832483</v>
+        <v>252653</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>670</v>
+        <v>751</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>671</v>
+        <v>752</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>672</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8641,49 +9586,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>400</v>
+        <v>134</v>
       </c>
       <c r="D29" s="7">
-        <v>399910</v>
+        <v>89556</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>673</v>
+        <v>753</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>674</v>
+        <v>754</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>675</v>
+        <v>755</v>
       </c>
       <c r="H29" s="7">
-        <v>922</v>
+        <v>331</v>
       </c>
       <c r="I29" s="7">
-        <v>539024</v>
+        <v>158144</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>676</v>
+        <v>756</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>606</v>
+        <v>757</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>677</v>
+        <v>758</v>
       </c>
       <c r="M29" s="7">
-        <v>1322</v>
+        <v>465</v>
       </c>
       <c r="N29" s="7">
-        <v>938934</v>
+        <v>247701</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>678</v>
+        <v>759</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>679</v>
+        <v>760</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>130</v>
+        <v>761</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8692,49 +9637,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="D30" s="7">
-        <v>151549</v>
+        <v>51391</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>680</v>
+        <v>706</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>681</v>
+        <v>762</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>682</v>
+        <v>763</v>
       </c>
       <c r="H30" s="7">
-        <v>515</v>
+        <v>318</v>
       </c>
       <c r="I30" s="7">
-        <v>297238</v>
+        <v>156846</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>683</v>
+        <v>764</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>684</v>
+        <v>765</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>685</v>
+        <v>766</v>
       </c>
       <c r="M30" s="7">
-        <v>706</v>
+        <v>406</v>
       </c>
       <c r="N30" s="7">
-        <v>448787</v>
+        <v>208236</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>198</v>
+        <v>767</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>371</v>
+        <v>768</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>323</v>
+        <v>769</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8743,63 +9688,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>458</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="7">
+        <v>881</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N31" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2785</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2743009</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3929</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2955870</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="M32" s="7">
+        <v>6714</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5698879</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>400</v>
+      </c>
+      <c r="D33" s="7">
+        <v>575495</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="H33" s="7">
+        <v>922</v>
+      </c>
+      <c r="I33" s="7">
+        <v>489021</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1322</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1064516</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>191</v>
+      </c>
+      <c r="D34" s="7">
+        <v>141313</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="H34" s="7">
+        <v>515</v>
+      </c>
+      <c r="I34" s="7">
+        <v>266844</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M34" s="7">
+        <v>706</v>
+      </c>
+      <c r="N34" s="7">
+        <v>408157</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3376</v>
       </c>
-      <c r="D31" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="7">
         <v>5366</v>
       </c>
-      <c r="I31" s="7">
-        <v>3834976</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3711735</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="7">
         <v>8742</v>
       </c>
-      <c r="N31" s="7">
-        <v>7220204</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>202</v>
+      <c r="N35" s="7">
+        <v>7171552</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
